--- a/thucan.xlsx
+++ b/thucan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>ID Thuc An</t>
   </si>
@@ -65,43 +65,49 @@
     <t>Hoa quả</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Dâu Tây</t>
+  </si>
+  <si>
+    <t>Hoa Quả</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Dâu Tây</t>
-  </si>
-  <si>
-    <t>Hoa Quả</t>
+    <t>333</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>3344</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Cam</t>
-  </si>
-  <si>
-    <t>333</t>
   </si>
   <si>
     <t>14</t>
@@ -423,24 +429,24 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -449,96 +455,96 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -547,93 +553,93 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -644,19 +650,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -667,68 +673,68 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -736,45 +742,45 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -782,7 +788,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>

--- a/thucan.xlsx
+++ b/thucan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>ID Thuc An</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Đồ khô</t>
   </si>
   <si>
-    <t>153</t>
+    <t>4</t>
   </si>
   <si>
     <t>199</t>
@@ -65,9 +65,6 @@
     <t>Hoa quả</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -83,7 +80,7 @@
     <t>Hoa Quả</t>
   </si>
   <si>
-    <t>159</t>
+    <t>10</t>
   </si>
   <si>
     <t>3344</t>
@@ -92,9 +89,6 @@
     <t>2025</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t>Hạt Điều</t>
-  </si>
-  <si>
-    <t>34</t>
   </si>
   <si>
     <t>2024</t>
@@ -383,266 +374,266 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -650,22 +641,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -673,68 +664,68 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -742,45 +733,45 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -788,7 +779,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
